--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1628.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1628.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.105326224675108</v>
+        <v>0.9176806807518005</v>
       </c>
       <c r="B1">
-        <v>2.832181114821011</v>
+        <v>3.041046619415283</v>
       </c>
       <c r="C1">
-        <v>4.083271538176572</v>
+        <v>4.276788234710693</v>
       </c>
       <c r="D1">
-        <v>2.356609011300602</v>
+        <v>3.008546829223633</v>
       </c>
       <c r="E1">
-        <v>1.116308537457366</v>
+        <v>1.383129954338074</v>
       </c>
     </row>
   </sheetData>
